--- a/Timeline TG.xlsx
+++ b/Timeline TG.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Semester 4\Teori Graft\Project_Website_TG-main\Project_Website_TG-main\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="TIMELINE" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
   <si>
     <t>TIMELINE PROJECT TEORI GRAF</t>
   </si>
@@ -143,25 +148,22 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3">
     <font>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11"/>
     </font>
     <font>
-      <name val="Calibri"/>
       <sz val="11"/>
       <color rgb="FF141414"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <name val="Calibri"/>
       <b/>
       <sz val="20"/>
       <color rgb="FF141414"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="9">
@@ -383,144 +385,140 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16" count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -589,6 +587,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -845,25 +851,30 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="F1" zoomScale="71">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" defaultColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" customWidth="1" width="13.285156" style="0"/>
-    <col min="8" max="8" customWidth="1" width="14.285156" style="0"/>
-    <col min="11" max="11" customWidth="1" width="11.285156" style="0"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="8:8">
+    <row r="1" spans="1:11">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>16</v>
@@ -872,7 +883,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="8:8">
+    <row r="2" spans="1:11">
       <c r="A2" s="3"/>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -881,387 +892,401 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="8:8" ht="24.0" customHeight="1">
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="1:11" ht="24" customHeight="1">
+      <c r="B4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="8:8" ht="13.5" customHeight="1">
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="8:8">
-      <c r="B6" s="6" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+    </row>
+    <row r="5" spans="1:11" ht="13.5" customHeight="1">
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8" t="s">
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="6" t="s">
+      <c r="G6" s="11"/>
+      <c r="H6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-    </row>
-    <row r="7" spans="8:8">
-      <c r="B7" s="10" t="s">
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11" t="s">
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="6" t="s">
+      <c r="G7" s="35"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="8:8">
-      <c r="B8" s="14" t="s">
+    <row r="8" spans="1:11">
+      <c r="B8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="15" t="s">
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15" t="s">
+      <c r="G8" s="22"/>
+      <c r="H8" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="16">
-        <v>18.0</v>
-      </c>
-      <c r="J8" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="8:8">
-      <c r="B9" s="18"/>
-      <c r="C9" s="19" t="s">
+      <c r="I8" s="6">
+        <v>18</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="B9" s="20"/>
+      <c r="C9" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="16">
-        <v>28.0</v>
-      </c>
-      <c r="J9" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="8:8">
-      <c r="B10" s="18"/>
-      <c r="C10" s="19" t="s">
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="6">
+        <v>28</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10" s="20"/>
+      <c r="C10" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="16">
-        <v>28.0</v>
-      </c>
-      <c r="J10" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="8:8">
-      <c r="B11" s="18"/>
-      <c r="C11" s="19" t="s">
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="6">
+        <v>28</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="B11" s="20"/>
+      <c r="C11" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="20">
-        <v>2.0</v>
-      </c>
-      <c r="K11" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="8:8">
-      <c r="B12" s="18"/>
-      <c r="C12" s="19" t="s">
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="6">
+        <v>2</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="B12" s="20"/>
+      <c r="C12" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="20">
-        <v>2.0</v>
-      </c>
-      <c r="K12" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="8:8">
-      <c r="B13" s="18"/>
-      <c r="C13" s="19" t="s">
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="6">
+        <v>2</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="B13" s="20"/>
+      <c r="C13" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="20">
-        <v>2.0</v>
-      </c>
-      <c r="K13" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="8:8">
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="6">
+        <v>2</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="B14" s="21"/>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="20">
-        <v>2.0</v>
-      </c>
-      <c r="K14" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="8:8">
-      <c r="B15" s="22" t="s">
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="6">
+        <v>2</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="B15" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
       <c r="F15" s="23" t="s">
         <v>27</v>
       </c>
       <c r="G15" s="24"/>
-      <c r="H15" s="25" t="s">
+      <c r="H15" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="16">
-        <v>18.0</v>
-      </c>
-      <c r="J15" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="8:8">
-      <c r="B16" s="26"/>
-      <c r="C16" s="27" t="s">
+      <c r="I15" s="6">
+        <v>18</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="B16" s="14"/>
+      <c r="C16" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="20">
-        <v>3.0</v>
-      </c>
-      <c r="K16" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="8:8" ht="30.0" customHeight="1">
-      <c r="B17" s="33" t="s">
+      <c r="D16" s="42"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="6">
+        <v>3</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="30" customHeight="1">
+      <c r="B17" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
       <c r="F17" s="23" t="s">
         <v>29</v>
       </c>
       <c r="G17" s="24"/>
-      <c r="H17" s="35" t="s">
+      <c r="H17" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="37">
-        <v>5.0</v>
-      </c>
-      <c r="K17" s="36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="8:8">
-      <c r="B18" s="38"/>
-      <c r="C18" s="34" t="s">
+      <c r="I17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="44">
+        <v>5</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="39"/>
+      <c r="C18" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" s="37">
-        <v>9.0</v>
-      </c>
-      <c r="K18" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="8:8">
-      <c r="B19" s="38"/>
-      <c r="C19" s="34" t="s">
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="9">
+        <v>18</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="39"/>
+      <c r="C19" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" s="37">
-        <v>11.0</v>
-      </c>
-      <c r="K19" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="8:8">
-      <c r="B20" s="38"/>
-      <c r="C20" s="34" t="s">
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="9">
+        <v>9</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="39"/>
+      <c r="C20" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" s="37">
-        <v>15.0</v>
-      </c>
-      <c r="K20" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="8:8">
-      <c r="B21" s="38"/>
-      <c r="C21" s="34" t="s">
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="9">
+        <v>15</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="39"/>
+      <c r="C21" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21" s="37">
-        <v>20.0</v>
-      </c>
-      <c r="K21" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="8:8" ht="27.75" customHeight="1">
-      <c r="B22" s="42"/>
-      <c r="C22" s="43" t="s">
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="9">
+        <v>20</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="27.75" customHeight="1">
+      <c r="B22" s="40"/>
+      <c r="C22" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="J22" s="37">
-        <v>25.0</v>
-      </c>
-      <c r="K22" s="36" t="s">
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="9">
+        <v>25</v>
+      </c>
+      <c r="K22" s="8" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="F8:G14"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C19:E19"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="B15:B16"/>
@@ -1278,20 +1303,6 @@
     <mergeCell ref="H17:H22"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F8:G14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C12:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
